--- a/data/7083.xlsx
+++ b/data/7083.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1207"/>
+  <dimension ref="A1:I1208"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43397,6 +43397,43 @@
         </is>
       </c>
     </row>
+    <row r="1208">
+      <c r="A1208" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1208" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1208" t="inlineStr">
+        <is>
+          <t>7083</t>
+        </is>
+      </c>
+      <c r="D1208" t="inlineStr">
+        <is>
+          <t>ANALABS</t>
+        </is>
+      </c>
+      <c r="E1208" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="F1208" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="G1208" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="H1208" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="I1208" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7083.xlsx
+++ b/data/7083.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1208"/>
+  <dimension ref="A1:I1209"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43434,6 +43434,41 @@
         </is>
       </c>
     </row>
+    <row r="1209">
+      <c r="A1209" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1209" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1209" t="inlineStr">
+        <is>
+          <t>7083</t>
+        </is>
+      </c>
+      <c r="D1209" t="inlineStr">
+        <is>
+          <t>ANALABS</t>
+        </is>
+      </c>
+      <c r="E1209" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="F1209" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="G1209" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="H1209" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="I1209" t="n">
+        <v>100000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7083.xlsx
+++ b/data/7083.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1209"/>
+  <dimension ref="A1:I1210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43469,6 +43469,43 @@
         <v>100000</v>
       </c>
     </row>
+    <row r="1210">
+      <c r="A1210" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1210" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1210" t="inlineStr">
+        <is>
+          <t>7083</t>
+        </is>
+      </c>
+      <c r="D1210" t="inlineStr">
+        <is>
+          <t>ANALABS</t>
+        </is>
+      </c>
+      <c r="E1210" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="F1210" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="G1210" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="H1210" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="I1210" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7083.xlsx
+++ b/data/7083.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1210"/>
+  <dimension ref="A1:I1211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43506,6 +43506,43 @@
         </is>
       </c>
     </row>
+    <row r="1211">
+      <c r="A1211" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1211" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1211" t="inlineStr">
+        <is>
+          <t>7083</t>
+        </is>
+      </c>
+      <c r="D1211" t="inlineStr">
+        <is>
+          <t>ANALABS</t>
+        </is>
+      </c>
+      <c r="E1211" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="F1211" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="G1211" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="H1211" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="I1211" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7083.xlsx
+++ b/data/7083.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1211"/>
+  <dimension ref="A1:I1212"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43543,6 +43543,43 @@
         </is>
       </c>
     </row>
+    <row r="1212">
+      <c r="A1212" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1212" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1212" t="inlineStr">
+        <is>
+          <t>7083</t>
+        </is>
+      </c>
+      <c r="D1212" t="inlineStr">
+        <is>
+          <t>ANALABS</t>
+        </is>
+      </c>
+      <c r="E1212" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="F1212" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="G1212" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="H1212" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="I1212" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7083.xlsx
+++ b/data/7083.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1212"/>
+  <dimension ref="A1:I1213"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43580,6 +43580,43 @@
         </is>
       </c>
     </row>
+    <row r="1213">
+      <c r="A1213" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1213" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1213" t="inlineStr">
+        <is>
+          <t>7083</t>
+        </is>
+      </c>
+      <c r="D1213" t="inlineStr">
+        <is>
+          <t>ANALABS</t>
+        </is>
+      </c>
+      <c r="E1213" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="F1213" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="G1213" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="H1213" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="I1213" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7083.xlsx
+++ b/data/7083.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1213"/>
+  <dimension ref="A1:I1214"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43617,6 +43617,41 @@
         </is>
       </c>
     </row>
+    <row r="1214">
+      <c r="A1214" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1214" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1214" t="inlineStr">
+        <is>
+          <t>7083</t>
+        </is>
+      </c>
+      <c r="D1214" t="inlineStr">
+        <is>
+          <t>ANALABS</t>
+        </is>
+      </c>
+      <c r="E1214" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="F1214" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="G1214" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="H1214" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="I1214" t="n">
+        <v>7000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7083.xlsx
+++ b/data/7083.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1214"/>
+  <dimension ref="A1:I1215"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43652,6 +43652,43 @@
         <v>7000</v>
       </c>
     </row>
+    <row r="1215">
+      <c r="A1215" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1215" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1215" t="inlineStr">
+        <is>
+          <t>7083</t>
+        </is>
+      </c>
+      <c r="D1215" t="inlineStr">
+        <is>
+          <t>ANALABS</t>
+        </is>
+      </c>
+      <c r="E1215" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="F1215" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="G1215" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="H1215" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="I1215" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7083.xlsx
+++ b/data/7083.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1215"/>
+  <dimension ref="A1:I1216"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43689,6 +43689,43 @@
         </is>
       </c>
     </row>
+    <row r="1216">
+      <c r="A1216" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1216" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1216" t="inlineStr">
+        <is>
+          <t>7083</t>
+        </is>
+      </c>
+      <c r="D1216" t="inlineStr">
+        <is>
+          <t>ANALABS</t>
+        </is>
+      </c>
+      <c r="E1216" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="F1216" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="G1216" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="H1216" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="I1216" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7083.xlsx
+++ b/data/7083.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1216"/>
+  <dimension ref="A1:I1217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43726,6 +43726,43 @@
         </is>
       </c>
     </row>
+    <row r="1217">
+      <c r="A1217" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1217" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1217" t="inlineStr">
+        <is>
+          <t>7083</t>
+        </is>
+      </c>
+      <c r="D1217" t="inlineStr">
+        <is>
+          <t>ANALABS</t>
+        </is>
+      </c>
+      <c r="E1217" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="F1217" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="G1217" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="H1217" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="I1217" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7083.xlsx
+++ b/data/7083.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43763,6 +43763,41 @@
         </is>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>7083</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>ANALABS</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>10000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7083.xlsx
+++ b/data/7083.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43798,6 +43798,80 @@
         <v>10000</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>7083</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>ANALABS</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="I1219" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>7083</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>ANALABS</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="I1220" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7083.xlsx
+++ b/data/7083.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43872,6 +43872,78 @@
         </is>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>7083</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>ANALABS</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="I1221" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>7083</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>ANALABS</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>2000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7083.xlsx
+++ b/data/7083.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43944,6 +43944,41 @@
         <v>2000</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>7083</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>ANALABS</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>3500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7083.xlsx
+++ b/data/7083.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43979,6 +43979,43 @@
         <v>3500</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>7083</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>ANALABS</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="I1224" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7083.xlsx
+++ b/data/7083.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44016,6 +44016,41 @@
         </is>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>7083</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>ANALABS</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>4200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7083.xlsx
+++ b/data/7083.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44051,6 +44051,41 @@
         <v>4200</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>7083</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>ANALABS</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>20300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7083.xlsx
+++ b/data/7083.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44086,6 +44086,80 @@
         <v>20300</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>7083</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>ANALABS</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>1</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1227" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>7083</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>ANALABS</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>1</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1228" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7083.xlsx
+++ b/data/7083.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44160,6 +44160,43 @@
         </is>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>7083</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>ANALABS</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>1</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1229" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7083.xlsx
+++ b/data/7083.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2583"/>
+  <dimension ref="A1:I2584"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91587,6 +91587,43 @@
         </is>
       </c>
     </row>
+    <row r="2584">
+      <c r="A2584" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2584" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2584" t="inlineStr">
+        <is>
+          <t>7083</t>
+        </is>
+      </c>
+      <c r="D2584" t="inlineStr">
+        <is>
+          <t>ANALABS</t>
+        </is>
+      </c>
+      <c r="E2584" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2584" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2584" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2584" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2584" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7083.xlsx
+++ b/data/7083.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2584"/>
+  <dimension ref="A1:I2585"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91624,6 +91624,43 @@
         </is>
       </c>
     </row>
+    <row r="2585">
+      <c r="A2585" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2585" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2585" t="inlineStr">
+        <is>
+          <t>7083</t>
+        </is>
+      </c>
+      <c r="D2585" t="inlineStr">
+        <is>
+          <t>ANALABS</t>
+        </is>
+      </c>
+      <c r="E2585" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2585" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2585" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2585" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2585" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7083.xlsx
+++ b/data/7083.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2585"/>
+  <dimension ref="A1:I2586"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91661,6 +91661,43 @@
         </is>
       </c>
     </row>
+    <row r="2586">
+      <c r="A2586" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2586" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2586" t="inlineStr">
+        <is>
+          <t>7083</t>
+        </is>
+      </c>
+      <c r="D2586" t="inlineStr">
+        <is>
+          <t>ANALABS</t>
+        </is>
+      </c>
+      <c r="E2586" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2586" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2586" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2586" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2586" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7083.xlsx
+++ b/data/7083.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2586"/>
+  <dimension ref="A1:I2587"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91698,6 +91698,43 @@
         </is>
       </c>
     </row>
+    <row r="2587">
+      <c r="A2587" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2587" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2587" t="inlineStr">
+        <is>
+          <t>7083</t>
+        </is>
+      </c>
+      <c r="D2587" t="inlineStr">
+        <is>
+          <t>ANALABS</t>
+        </is>
+      </c>
+      <c r="E2587" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2587" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2587" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2587" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2587" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7083.xlsx
+++ b/data/7083.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2587"/>
+  <dimension ref="A1:I2588"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91735,6 +91735,43 @@
         </is>
       </c>
     </row>
+    <row r="2588">
+      <c r="A2588" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2588" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2588" t="inlineStr">
+        <is>
+          <t>7083</t>
+        </is>
+      </c>
+      <c r="D2588" t="inlineStr">
+        <is>
+          <t>ANALABS</t>
+        </is>
+      </c>
+      <c r="E2588" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2588" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2588" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2588" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2588" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7083.xlsx
+++ b/data/7083.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2588"/>
+  <dimension ref="A1:I2589"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91772,6 +91772,43 @@
         </is>
       </c>
     </row>
+    <row r="2589">
+      <c r="A2589" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2589" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2589" t="inlineStr">
+        <is>
+          <t>7083</t>
+        </is>
+      </c>
+      <c r="D2589" t="inlineStr">
+        <is>
+          <t>ANALABS</t>
+        </is>
+      </c>
+      <c r="E2589" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2589" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2589" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2589" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2589" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7083.xlsx
+++ b/data/7083.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2589"/>
+  <dimension ref="A1:I2590"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91809,6 +91809,43 @@
         </is>
       </c>
     </row>
+    <row r="2590">
+      <c r="A2590" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2590" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2590" t="inlineStr">
+        <is>
+          <t>7083</t>
+        </is>
+      </c>
+      <c r="D2590" t="inlineStr">
+        <is>
+          <t>ANALABS</t>
+        </is>
+      </c>
+      <c r="E2590" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2590" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2590" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2590" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2590" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7083.xlsx
+++ b/data/7083.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2590"/>
+  <dimension ref="A1:I2591"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91846,6 +91846,41 @@
         </is>
       </c>
     </row>
+    <row r="2591">
+      <c r="A2591" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2591" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2591" t="inlineStr">
+        <is>
+          <t>7083</t>
+        </is>
+      </c>
+      <c r="D2591" t="inlineStr">
+        <is>
+          <t>ANALABS</t>
+        </is>
+      </c>
+      <c r="E2591" t="n">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="F2591" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="G2591" t="n">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="H2591" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="I2591" t="n">
+        <v>29000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7083.xlsx
+++ b/data/7083.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2591"/>
+  <dimension ref="A1:I2592"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91881,6 +91881,41 @@
         <v>29000</v>
       </c>
     </row>
+    <row r="2592">
+      <c r="A2592" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2592" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2592" t="inlineStr">
+        <is>
+          <t>7083</t>
+        </is>
+      </c>
+      <c r="D2592" t="inlineStr">
+        <is>
+          <t>ANALABS</t>
+        </is>
+      </c>
+      <c r="E2592" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="F2592" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="G2592" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="H2592" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="I2592" t="n">
+        <v>3000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7083.xlsx
+++ b/data/7083.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2592"/>
+  <dimension ref="A1:I2593"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91916,6 +91916,41 @@
         <v>3000</v>
       </c>
     </row>
+    <row r="2593">
+      <c r="A2593" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2593" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2593" t="inlineStr">
+        <is>
+          <t>7083</t>
+        </is>
+      </c>
+      <c r="D2593" t="inlineStr">
+        <is>
+          <t>ANALABS</t>
+        </is>
+      </c>
+      <c r="E2593" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="F2593" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="G2593" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="H2593" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="I2593" t="n">
+        <v>87100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7083.xlsx
+++ b/data/7083.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2593"/>
+  <dimension ref="A1:I2594"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91951,6 +91951,43 @@
         <v>87100</v>
       </c>
     </row>
+    <row r="2594">
+      <c r="A2594" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2594" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2594" t="inlineStr">
+        <is>
+          <t>7083</t>
+        </is>
+      </c>
+      <c r="D2594" t="inlineStr">
+        <is>
+          <t>ANALABS</t>
+        </is>
+      </c>
+      <c r="E2594" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="F2594" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="G2594" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="H2594" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="I2594" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7083.xlsx
+++ b/data/7083.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2594"/>
+  <dimension ref="A1:I2595"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91988,6 +91988,43 @@
         </is>
       </c>
     </row>
+    <row r="2595">
+      <c r="A2595" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2595" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2595" t="inlineStr">
+        <is>
+          <t>7083</t>
+        </is>
+      </c>
+      <c r="D2595" t="inlineStr">
+        <is>
+          <t>ANALABS</t>
+        </is>
+      </c>
+      <c r="E2595" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="F2595" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="G2595" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="H2595" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="I2595" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7083.xlsx
+++ b/data/7083.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2595"/>
+  <dimension ref="A1:I2596"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -92025,6 +92025,41 @@
         </is>
       </c>
     </row>
+    <row r="2596">
+      <c r="A2596" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2596" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2596" t="inlineStr">
+        <is>
+          <t>7083</t>
+        </is>
+      </c>
+      <c r="D2596" t="inlineStr">
+        <is>
+          <t>ANALABS</t>
+        </is>
+      </c>
+      <c r="E2596" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="F2596" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="G2596" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="H2596" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="I2596" t="n">
+        <v>10000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7083.xlsx
+++ b/data/7083.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2596"/>
+  <dimension ref="A1:I2597"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -92060,6 +92060,41 @@
         <v>10000</v>
       </c>
     </row>
+    <row r="2597">
+      <c r="A2597" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2597" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2597" t="inlineStr">
+        <is>
+          <t>7083</t>
+        </is>
+      </c>
+      <c r="D2597" t="inlineStr">
+        <is>
+          <t>ANALABS</t>
+        </is>
+      </c>
+      <c r="E2597" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="F2597" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="G2597" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="H2597" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="I2597" t="n">
+        <v>5000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7083.xlsx
+++ b/data/7083.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2597"/>
+  <dimension ref="A1:I2598"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -92095,6 +92095,43 @@
         <v>5000</v>
       </c>
     </row>
+    <row r="2598">
+      <c r="A2598" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2598" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2598" t="inlineStr">
+        <is>
+          <t>7083</t>
+        </is>
+      </c>
+      <c r="D2598" t="inlineStr">
+        <is>
+          <t>ANALABS</t>
+        </is>
+      </c>
+      <c r="E2598" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="F2598" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="G2598" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="H2598" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="I2598" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
